--- a/08_APS/base_PBI/equipes_gyn_tratado.xlsx
+++ b/08_APS/base_PBI/equipes_gyn_tratado.xlsx
@@ -1934,12 +1934,12 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>-15.8288855</t>
+          <t>-15.8451859</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>-48.3164968</t>
+          <t>-48.2485259</t>
         </is>
       </c>
       <c r="I21">
@@ -2694,12 +2694,12 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>-15.7430819</t>
+          <t>-15.7431231</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>-48.1874682</t>
+          <t>-48.2361776</t>
         </is>
       </c>
       <c r="I31">
@@ -12498,12 +12498,12 @@
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>-15.7684252</t>
+          <t>-15.76842</t>
         </is>
       </c>
       <c r="G160" t="inlineStr">
         <is>
-          <t>-47.8242666</t>
+          <t>-47.7934963</t>
         </is>
       </c>
       <c r="I160">
@@ -12650,12 +12650,12 @@
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>-15.8756717</t>
+          <t>-15.8767719</t>
         </is>
       </c>
       <c r="G162" t="inlineStr">
         <is>
-          <t>-48.6372608</t>
+          <t>-48.1377141</t>
         </is>
       </c>
       <c r="I162">
